--- a/Code/Results/Cases/Case_4_124/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_124/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.36831617204162</v>
+        <v>13.87207273792896</v>
       </c>
       <c r="C2">
-        <v>15.07326758186361</v>
+        <v>8.16641005421905</v>
       </c>
       <c r="D2">
-        <v>7.270922478774001</v>
+        <v>5.984966522721663</v>
       </c>
       <c r="E2">
-        <v>11.50151779751355</v>
+        <v>10.78010055468211</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>62.17767812056469</v>
+        <v>46.32993351566965</v>
       </c>
       <c r="H2">
-        <v>16.62788099124635</v>
+        <v>17.37094115793137</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.38234965631825</v>
+        <v>15.3123776500617</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.84505413621648</v>
+        <v>13.36998827415124</v>
       </c>
       <c r="C3">
-        <v>14.06085468846214</v>
+        <v>7.638791975103773</v>
       </c>
       <c r="D3">
-        <v>6.744175929661492</v>
+        <v>5.867586134613891</v>
       </c>
       <c r="E3">
-        <v>10.86094440259499</v>
+        <v>10.64564611964875</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>58.36335235981224</v>
+        <v>45.10422381062273</v>
       </c>
       <c r="H3">
-        <v>15.91477078319296</v>
+        <v>17.24139484836551</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.0987159137496</v>
+        <v>15.07321361649098</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.8637666235402</v>
+        <v>13.05710524186207</v>
       </c>
       <c r="C4">
-        <v>13.41046722223882</v>
+        <v>7.294899043597051</v>
       </c>
       <c r="D4">
-        <v>6.405413608902061</v>
+        <v>5.796330801672381</v>
       </c>
       <c r="E4">
-        <v>10.4632116730511</v>
+        <v>10.56543734702103</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>55.97160217094304</v>
+        <v>44.34875625077297</v>
       </c>
       <c r="H4">
-        <v>15.47917702530019</v>
+        <v>17.16543885217095</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.27414246927758</v>
+        <v>14.92972147265454</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.45207378109457</v>
+        <v>12.92868484488207</v>
       </c>
       <c r="C5">
-        <v>13.13805321177099</v>
+        <v>7.149736715679578</v>
       </c>
       <c r="D5">
-        <v>6.26342031800406</v>
+        <v>5.767541948358864</v>
       </c>
       <c r="E5">
-        <v>10.30010033755857</v>
+        <v>10.53337420973583</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>54.98479136192967</v>
+        <v>44.04064078631554</v>
       </c>
       <c r="H5">
-        <v>15.30231874952436</v>
+        <v>17.13540720025811</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.92875870688517</v>
+        <v>14.87217035709392</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.3829924084568</v>
+        <v>12.9073126650564</v>
       </c>
       <c r="C6">
-        <v>13.09236981522121</v>
+        <v>7.125328947994826</v>
       </c>
       <c r="D6">
-        <v>6.239601726074843</v>
+        <v>5.762777830853788</v>
       </c>
       <c r="E6">
-        <v>10.27295664561088</v>
+        <v>10.52808867079981</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>54.82021349105758</v>
+        <v>43.98947694894016</v>
       </c>
       <c r="H6">
-        <v>15.27299380403892</v>
+        <v>17.13047662348134</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.87083687883391</v>
+        <v>14.86267207346279</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.85826251831374</v>
+        <v>13.05537670605684</v>
       </c>
       <c r="C7">
-        <v>13.40682339009126</v>
+        <v>7.292961685494484</v>
       </c>
       <c r="D7">
-        <v>6.403514722288259</v>
+        <v>5.795941483108913</v>
       </c>
       <c r="E7">
-        <v>10.46101593887456</v>
+        <v>10.56500236974079</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>55.95834224785331</v>
+        <v>44.34460130593416</v>
       </c>
       <c r="H7">
-        <v>15.47678909081875</v>
+        <v>17.16503008162546</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.2695226712675</v>
+        <v>14.92894147716251</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.85248981244344</v>
+        <v>13.70004609745212</v>
       </c>
       <c r="C8">
-        <v>14.7300638102592</v>
+        <v>7.988617555513635</v>
       </c>
       <c r="D8">
-        <v>7.092428432222578</v>
+        <v>5.944349952953877</v>
       </c>
       <c r="E8">
-        <v>11.28159850100475</v>
+        <v>10.73327352714496</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>60.87295411174441</v>
+        <v>45.90818054307304</v>
       </c>
       <c r="H8">
-        <v>16.38157011246944</v>
+        <v>17.32554145700036</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.94717975331532</v>
+        <v>15.22926552957215</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.41027768479535</v>
+        <v>14.91827127274751</v>
       </c>
       <c r="C9">
-        <v>17.10443319889118</v>
+        <v>9.195192595211925</v>
       </c>
       <c r="D9">
-        <v>8.326062664569834</v>
+        <v>6.239989789387902</v>
       </c>
       <c r="E9">
-        <v>12.85470392725172</v>
+        <v>11.08037957688356</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>70.11411024140014</v>
+        <v>48.93200225388976</v>
       </c>
       <c r="H9">
-        <v>18.17223214254988</v>
+        <v>17.66782661392969</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.95872625524066</v>
+        <v>15.84127496019544</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.82794281609813</v>
+        <v>15.77406403455126</v>
       </c>
       <c r="C10">
-        <v>18.72723439643984</v>
+        <v>9.986431391047878</v>
       </c>
       <c r="D10">
-        <v>9.167725975187761</v>
+        <v>6.457560793257739</v>
       </c>
       <c r="E10">
-        <v>13.99097166236013</v>
+        <v>11.34376807556432</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>76.6798998839692</v>
+        <v>51.10329379817811</v>
       </c>
       <c r="H10">
-        <v>19.49941124503419</v>
+        <v>17.93473053189931</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.01870896490168</v>
+        <v>16.3002042163727</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.89010037499973</v>
+        <v>16.15289990630977</v>
       </c>
       <c r="C11">
-        <v>19.44257451922464</v>
+        <v>10.32590323215413</v>
       </c>
       <c r="D11">
-        <v>9.538351272973012</v>
+        <v>6.556125652046261</v>
       </c>
       <c r="E11">
-        <v>14.52638985957146</v>
+        <v>11.46495538247506</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>79.62800679881316</v>
+        <v>52.07549217042104</v>
       </c>
       <c r="H11">
-        <v>20.10723092666004</v>
+        <v>18.0591854399492</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>23.92727664669623</v>
+        <v>16.50999789795102</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.28737790234132</v>
+        <v>16.2947114398872</v>
       </c>
       <c r="C12">
-        <v>19.71051726253435</v>
+        <v>10.45152509930231</v>
       </c>
       <c r="D12">
-        <v>9.677109342051169</v>
+        <v>6.593351978228343</v>
       </c>
       <c r="E12">
-        <v>14.74962338720151</v>
+        <v>11.51100484973151</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>80.74003097374617</v>
+        <v>52.44105516338664</v>
       </c>
       <c r="H12">
-        <v>20.33820286436963</v>
+        <v>18.10672187900767</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>24.2676785632294</v>
+        <v>16.58950734206634</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.20202835029055</v>
+        <v>16.26424501348027</v>
       </c>
       <c r="C13">
-        <v>19.65293558925541</v>
+        <v>10.42460020799405</v>
       </c>
       <c r="D13">
-        <v>9.647292984799607</v>
+        <v>6.585339585903117</v>
       </c>
       <c r="E13">
-        <v>14.70161551354433</v>
+        <v>11.50108083683405</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>80.50070753322017</v>
+        <v>52.362445032834</v>
       </c>
       <c r="H13">
-        <v>20.28841881386994</v>
+        <v>18.09646637718502</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>24.19452142706558</v>
+        <v>16.57238194534216</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.92288062385247</v>
+        <v>16.16460054294675</v>
       </c>
       <c r="C14">
-        <v>19.46467505694555</v>
+        <v>10.33629683209116</v>
       </c>
       <c r="D14">
-        <v>9.549797762370799</v>
+        <v>6.559190466582808</v>
       </c>
       <c r="E14">
-        <v>14.54478728495979</v>
+        <v>11.46874094410512</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>79.71957289390355</v>
+        <v>52.10562103691402</v>
       </c>
       <c r="H14">
-        <v>20.12621547404771</v>
+        <v>18.06308828193757</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23.95535208832331</v>
+        <v>16.51653834417046</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.75126680756488</v>
+        <v>16.10334729064615</v>
       </c>
       <c r="C15">
-        <v>19.34898842303622</v>
+        <v>10.28182748555938</v>
       </c>
       <c r="D15">
-        <v>9.489877655085948</v>
+        <v>6.543159478718392</v>
       </c>
       <c r="E15">
-        <v>14.44851545445958</v>
+        <v>11.44895132164413</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>79.2405794488342</v>
+        <v>51.94796196033175</v>
       </c>
       <c r="H15">
-        <v>20.02697379638737</v>
+        <v>18.04269550354589</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>23.80839283863227</v>
+        <v>16.4823386117638</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.75780973940169</v>
+        <v>15.74908319458798</v>
       </c>
       <c r="C16">
-        <v>18.68005334092748</v>
+        <v>9.963835483583809</v>
       </c>
       <c r="D16">
-        <v>9.14327233585691</v>
+        <v>6.451107716252155</v>
       </c>
       <c r="E16">
-        <v>13.95732271129875</v>
+        <v>11.33587247190019</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>76.4865504316723</v>
+        <v>51.0394148756847</v>
       </c>
       <c r="H16">
-        <v>19.4597875943652</v>
+        <v>17.92665580996482</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.95879464981399</v>
+        <v>16.28650723917201</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.13902939843227</v>
+        <v>15.52896715029302</v>
       </c>
       <c r="C17">
-        <v>18.26405354098537</v>
+        <v>9.763525773934855</v>
       </c>
       <c r="D17">
-        <v>8.927617857821591</v>
+        <v>6.394503601714079</v>
       </c>
       <c r="E17">
-        <v>13.66217111348301</v>
+        <v>11.26682574297961</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>74.78787872548106</v>
+        <v>50.47781132215012</v>
       </c>
       <c r="H17">
-        <v>19.11301126282336</v>
+        <v>17.85622727581915</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.43058453061448</v>
+        <v>16.16657418963265</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.77954720161302</v>
+        <v>15.40138408143262</v>
       </c>
       <c r="C18">
-        <v>18.02260378931056</v>
+        <v>9.646385626283228</v>
       </c>
       <c r="D18">
-        <v>8.802414259679264</v>
+        <v>6.361910112686028</v>
       </c>
       <c r="E18">
-        <v>13.49215315571486</v>
+        <v>11.22724319882004</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>73.80711238406271</v>
+        <v>50.15334908057289</v>
       </c>
       <c r="H18">
-        <v>18.91392103435391</v>
+        <v>17.81600648411059</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.12405601019904</v>
+        <v>16.09769307931029</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.65720515059226</v>
+        <v>15.35802320523196</v>
       </c>
       <c r="C19">
-        <v>17.94046933413963</v>
+        <v>9.606392538481064</v>
       </c>
       <c r="D19">
-        <v>8.759817574864458</v>
+        <v>6.350869509628307</v>
       </c>
       <c r="E19">
-        <v>13.43453868386257</v>
+        <v>11.21386496249924</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>73.47436912251861</v>
+        <v>50.04325520704877</v>
       </c>
       <c r="H19">
-        <v>18.84657012004764</v>
+        <v>17.80243871831541</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.01979169084061</v>
+        <v>16.07439104524665</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.20526651683506</v>
+        <v>15.5525011828743</v>
       </c>
       <c r="C20">
-        <v>18.30856046750417</v>
+        <v>9.785048449983979</v>
       </c>
       <c r="D20">
-        <v>8.950694037181865</v>
+        <v>6.400533253470984</v>
       </c>
       <c r="E20">
-        <v>13.69361547551624</v>
+        <v>11.27416257587872</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>74.96908419738469</v>
+        <v>50.53774695167276</v>
       </c>
       <c r="H20">
-        <v>19.14988696622862</v>
+        <v>17.86369493012349</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.48709147056981</v>
+        <v>16.17933139610805</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.00500294994078</v>
+        <v>16.19391422465256</v>
       </c>
       <c r="C21">
-        <v>19.52004847403129</v>
+        <v>10.36231304378146</v>
       </c>
       <c r="D21">
-        <v>9.578476112983992</v>
+        <v>6.566874060042094</v>
       </c>
       <c r="E21">
-        <v>14.59089461235674</v>
+        <v>11.47823596010503</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>79.94911801079739</v>
+        <v>52.18112936750479</v>
       </c>
       <c r="H21">
-        <v>20.17383456329645</v>
+        <v>18.07288139764554</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>24.02569710910247</v>
+        <v>16.5329398382542</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.15272664897171</v>
+        <v>16.60347115179036</v>
       </c>
       <c r="C22">
-        <v>20.29489156575817</v>
+        <v>10.72252468082287</v>
       </c>
       <c r="D22">
-        <v>9.979602224635409</v>
+        <v>6.674999185803117</v>
       </c>
       <c r="E22">
-        <v>15.23790391951183</v>
+        <v>11.61251572770498</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>83.20786948873503</v>
+        <v>53.23994962609076</v>
       </c>
       <c r="H22">
-        <v>20.84789254006642</v>
+        <v>18.21196138453742</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>25.01023806134173</v>
+        <v>16.7643868013367</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.54259616969062</v>
+        <v>16.38580713686814</v>
       </c>
       <c r="C23">
-        <v>19.88276089405472</v>
+        <v>10.53182950774857</v>
       </c>
       <c r="D23">
-        <v>9.76628826151798</v>
+        <v>6.617357009069834</v>
       </c>
       <c r="E23">
-        <v>14.89334139702317</v>
+        <v>11.54077785403328</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>81.46054690478644</v>
+        <v>52.67633980505268</v>
       </c>
       <c r="H23">
-        <v>20.48759709041896</v>
+        <v>18.13752519408211</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>24.48652524843081</v>
+        <v>16.6408542509122</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.17533239079516</v>
+        <v>15.54186466104608</v>
       </c>
       <c r="C24">
-        <v>18.2884460316229</v>
+        <v>9.77532421469801</v>
       </c>
       <c r="D24">
-        <v>8.940265112107884</v>
+        <v>6.397807403861817</v>
       </c>
       <c r="E24">
-        <v>13.67940052724151</v>
+        <v>11.27084523776339</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>74.88717430121153</v>
+        <v>50.51065497540343</v>
       </c>
       <c r="H24">
-        <v>19.13321461601905</v>
+        <v>17.86031796196293</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.46155360380334</v>
+        <v>16.17356363877131</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.48376269790463</v>
+        <v>14.59486750423561</v>
       </c>
       <c r="C25">
-        <v>16.48451127549158</v>
+        <v>8.885569963318767</v>
       </c>
       <c r="D25">
-        <v>8.004234254640975</v>
+        <v>6.159774749083089</v>
       </c>
       <c r="E25">
-        <v>12.43293589607383</v>
+        <v>10.98485559958379</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>67.65572790387704</v>
+        <v>48.12114044747106</v>
       </c>
       <c r="H25">
-        <v>17.68608523232166</v>
+        <v>17.57241661556716</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.17219814499718</v>
+        <v>15.67373484681342</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_124/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_124/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.87207273792896</v>
+        <v>21.36831617204171</v>
       </c>
       <c r="C2">
-        <v>8.16641005421905</v>
+        <v>15.07326758186354</v>
       </c>
       <c r="D2">
-        <v>5.984966522721663</v>
+        <v>7.270922478774019</v>
       </c>
       <c r="E2">
-        <v>10.78010055468211</v>
+        <v>11.50151779751359</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>46.32993351566965</v>
+        <v>62.17767812056489</v>
       </c>
       <c r="H2">
-        <v>17.37094115793137</v>
+        <v>16.62788099124636</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.3123776500617</v>
+        <v>18.38234965631824</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.36998827415124</v>
+        <v>19.8450541362165</v>
       </c>
       <c r="C3">
-        <v>7.638791975103773</v>
+        <v>14.06085468846222</v>
       </c>
       <c r="D3">
-        <v>5.867586134613891</v>
+        <v>6.744175929661503</v>
       </c>
       <c r="E3">
-        <v>10.64564611964875</v>
+        <v>10.86094440259502</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>45.10422381062273</v>
+        <v>58.36335235981214</v>
       </c>
       <c r="H3">
-        <v>17.24139484836551</v>
+        <v>15.91477078319291</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.07321361649098</v>
+        <v>17.09871591374965</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.05710524186207</v>
+        <v>18.8637666235402</v>
       </c>
       <c r="C4">
-        <v>7.294899043597051</v>
+        <v>13.41046722223889</v>
       </c>
       <c r="D4">
-        <v>5.796330801672381</v>
+        <v>6.405413608902077</v>
       </c>
       <c r="E4">
-        <v>10.56543734702103</v>
+        <v>10.46321167305116</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>44.34875625077297</v>
+        <v>55.97160217094311</v>
       </c>
       <c r="H4">
-        <v>17.16543885217095</v>
+        <v>15.47917702530022</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.92972147265454</v>
+        <v>16.27414246927758</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.92868484488207</v>
+        <v>18.45207378109446</v>
       </c>
       <c r="C5">
-        <v>7.149736715679578</v>
+        <v>13.13805321177102</v>
       </c>
       <c r="D5">
-        <v>5.767541948358864</v>
+        <v>6.263420318003934</v>
       </c>
       <c r="E5">
-        <v>10.53337420973583</v>
+        <v>10.3001003375585</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>44.04064078631554</v>
+        <v>54.98479136192953</v>
       </c>
       <c r="H5">
-        <v>17.13540720025811</v>
+        <v>15.30231874952437</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.87217035709392</v>
+        <v>15.92875870688513</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.9073126650564</v>
+        <v>18.38299240845677</v>
       </c>
       <c r="C6">
-        <v>7.125328947994826</v>
+        <v>13.09236981522134</v>
       </c>
       <c r="D6">
-        <v>5.762777830853788</v>
+        <v>6.239601726074788</v>
       </c>
       <c r="E6">
-        <v>10.52808867079981</v>
+        <v>10.27295664561089</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>43.98947694894016</v>
+        <v>54.82021349105759</v>
       </c>
       <c r="H6">
-        <v>17.13047662348134</v>
+        <v>15.27299380403887</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.86267207346279</v>
+        <v>15.87083687883394</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.05537670605684</v>
+        <v>18.85826251831374</v>
       </c>
       <c r="C7">
-        <v>7.292961685494484</v>
+        <v>13.40682339009125</v>
       </c>
       <c r="D7">
-        <v>5.795941483108913</v>
+        <v>6.403514722288219</v>
       </c>
       <c r="E7">
-        <v>10.56500236974079</v>
+        <v>10.46101593887458</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>44.34460130593416</v>
+        <v>55.95834224785341</v>
       </c>
       <c r="H7">
-        <v>17.16503008162546</v>
+        <v>15.47678909081873</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.92894147716251</v>
+        <v>16.26952267126747</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.70004609745212</v>
+        <v>20.85248981244343</v>
       </c>
       <c r="C8">
-        <v>7.988617555513635</v>
+        <v>14.73006381025926</v>
       </c>
       <c r="D8">
-        <v>5.944349952953877</v>
+        <v>7.092428432222499</v>
       </c>
       <c r="E8">
-        <v>10.73327352714496</v>
+        <v>11.28159850100477</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>45.90818054307304</v>
+        <v>60.87295411174451</v>
       </c>
       <c r="H8">
-        <v>17.32554145700036</v>
+        <v>16.38157011246946</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.22926552957215</v>
+        <v>17.9471797533153</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.91827127274751</v>
+        <v>24.41027768479537</v>
       </c>
       <c r="C9">
-        <v>9.195192595211925</v>
+        <v>17.1044331988912</v>
       </c>
       <c r="D9">
-        <v>6.239989789387902</v>
+        <v>8.326062664569847</v>
       </c>
       <c r="E9">
-        <v>11.08037957688356</v>
+        <v>12.85470392725175</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>48.93200225388976</v>
+        <v>70.11411024140028</v>
       </c>
       <c r="H9">
-        <v>17.66782661392969</v>
+        <v>18.17223214254989</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.84127496019544</v>
+        <v>20.95872625524069</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.77406403455126</v>
+        <v>26.82794281609813</v>
       </c>
       <c r="C10">
-        <v>9.986431391047878</v>
+        <v>18.72723439643992</v>
       </c>
       <c r="D10">
-        <v>6.457560793257739</v>
+        <v>9.167725975187748</v>
       </c>
       <c r="E10">
-        <v>11.34376807556432</v>
+        <v>13.99097166236013</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>51.10329379817811</v>
+        <v>76.67989988396913</v>
       </c>
       <c r="H10">
-        <v>17.93473053189931</v>
+        <v>19.49941124503419</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.3002042163727</v>
+        <v>23.01870896490166</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.15289990630977</v>
+        <v>27.89010037499963</v>
       </c>
       <c r="C11">
-        <v>10.32590323215413</v>
+        <v>19.44257451922465</v>
       </c>
       <c r="D11">
-        <v>6.556125652046261</v>
+        <v>9.538351272973042</v>
       </c>
       <c r="E11">
-        <v>11.46495538247506</v>
+        <v>14.52638985957143</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>52.07549217042104</v>
+        <v>79.62800679881289</v>
       </c>
       <c r="H11">
-        <v>18.0591854399492</v>
+        <v>20.10723092666001</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.50999789795102</v>
+        <v>23.92727664669618</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.2947114398872</v>
+        <v>28.28737790234135</v>
       </c>
       <c r="C12">
-        <v>10.45152509930231</v>
+        <v>19.71051726253424</v>
       </c>
       <c r="D12">
-        <v>6.593351978228343</v>
+        <v>9.677109342051095</v>
       </c>
       <c r="E12">
-        <v>11.51100484973151</v>
+        <v>14.74962338720143</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>52.44105516338664</v>
+        <v>80.74003097374589</v>
       </c>
       <c r="H12">
-        <v>18.10672187900767</v>
+        <v>20.33820286436959</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.58950734206634</v>
+        <v>24.26767856322934</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.26424501348027</v>
+        <v>28.20202835029043</v>
       </c>
       <c r="C13">
-        <v>10.42460020799405</v>
+        <v>19.65293558925533</v>
       </c>
       <c r="D13">
-        <v>6.585339585903117</v>
+        <v>9.647292984799611</v>
       </c>
       <c r="E13">
-        <v>11.50108083683405</v>
+        <v>14.70161551354433</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>52.362445032834</v>
+        <v>80.50070753321951</v>
       </c>
       <c r="H13">
-        <v>18.09646637718502</v>
+        <v>20.28841881386981</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.57238194534216</v>
+        <v>24.19452142706552</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.16460054294675</v>
+        <v>27.92288062385243</v>
       </c>
       <c r="C14">
-        <v>10.33629683209116</v>
+        <v>19.46467505694541</v>
       </c>
       <c r="D14">
-        <v>6.559190466582808</v>
+        <v>9.549797762370726</v>
       </c>
       <c r="E14">
-        <v>11.46874094410512</v>
+        <v>14.54478728495979</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>52.10562103691402</v>
+        <v>79.71957289390353</v>
       </c>
       <c r="H14">
-        <v>18.06308828193757</v>
+        <v>20.12621547404774</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.51653834417046</v>
+        <v>23.95535208832327</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.10334729064615</v>
+        <v>27.75126680756496</v>
       </c>
       <c r="C15">
-        <v>10.28182748555938</v>
+        <v>19.34898842303599</v>
       </c>
       <c r="D15">
-        <v>6.543159478718392</v>
+        <v>9.48987765508598</v>
       </c>
       <c r="E15">
-        <v>11.44895132164413</v>
+        <v>14.44851545445971</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>51.94796196033175</v>
+        <v>79.24057944883432</v>
       </c>
       <c r="H15">
-        <v>18.04269550354589</v>
+        <v>20.02697379638743</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.4823386117638</v>
+        <v>23.8083928386323</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.74908319458798</v>
+        <v>26.75780973940176</v>
       </c>
       <c r="C16">
-        <v>9.963835483583809</v>
+        <v>18.68005334092749</v>
       </c>
       <c r="D16">
-        <v>6.451107716252155</v>
+        <v>9.143272335856881</v>
       </c>
       <c r="E16">
-        <v>11.33587247190019</v>
+        <v>13.95732271129876</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>51.0394148756847</v>
+        <v>76.48655043167234</v>
       </c>
       <c r="H16">
-        <v>17.92665580996482</v>
+        <v>19.4597875943652</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.28650723917201</v>
+        <v>22.95879464981403</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.52896715029302</v>
+        <v>26.13902939843202</v>
       </c>
       <c r="C17">
-        <v>9.763525773934855</v>
+        <v>18.26405354098533</v>
       </c>
       <c r="D17">
-        <v>6.394503601714079</v>
+        <v>8.927617857821533</v>
       </c>
       <c r="E17">
-        <v>11.26682574297961</v>
+        <v>13.66217111348296</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>50.47781132215012</v>
+        <v>74.78787872548078</v>
       </c>
       <c r="H17">
-        <v>17.85622727581915</v>
+        <v>19.11301126282333</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.16657418963265</v>
+        <v>22.43058453061441</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.40138408143262</v>
+        <v>25.77954720161303</v>
       </c>
       <c r="C18">
-        <v>9.646385626283228</v>
+        <v>18.02260378931072</v>
       </c>
       <c r="D18">
-        <v>6.361910112686028</v>
+        <v>8.802414259679178</v>
       </c>
       <c r="E18">
-        <v>11.22724319882004</v>
+        <v>13.49215315571486</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>50.15334908057289</v>
+        <v>73.80711238406285</v>
       </c>
       <c r="H18">
-        <v>17.81600648411059</v>
+        <v>18.91392103435392</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.09769307931029</v>
+        <v>22.1240560101991</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.35802320523196</v>
+        <v>25.65720515059245</v>
       </c>
       <c r="C19">
-        <v>9.606392538481064</v>
+        <v>17.94046933413951</v>
       </c>
       <c r="D19">
-        <v>6.350869509628307</v>
+        <v>8.759817574864559</v>
       </c>
       <c r="E19">
-        <v>11.21386496249924</v>
+        <v>13.43453868386263</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>50.04325520704877</v>
+        <v>73.47436912251914</v>
       </c>
       <c r="H19">
-        <v>17.80243871831541</v>
+        <v>18.8465701200477</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.07439104524665</v>
+        <v>22.0197916908407</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.5525011828743</v>
+        <v>26.20526651683516</v>
       </c>
       <c r="C20">
-        <v>9.785048449983979</v>
+        <v>18.30856046750417</v>
       </c>
       <c r="D20">
-        <v>6.400533253470984</v>
+        <v>8.95069403718178</v>
       </c>
       <c r="E20">
-        <v>11.27416257587872</v>
+        <v>13.69361547551629</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>50.53774695167276</v>
+        <v>74.96908419738459</v>
       </c>
       <c r="H20">
-        <v>17.86369493012349</v>
+        <v>19.1498869662286</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.17933139610805</v>
+        <v>22.48709147056987</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.19391422465256</v>
+        <v>28.00500294994083</v>
       </c>
       <c r="C21">
-        <v>10.36231304378146</v>
+        <v>19.52004847403121</v>
       </c>
       <c r="D21">
-        <v>6.566874060042094</v>
+        <v>9.578476112983962</v>
       </c>
       <c r="E21">
-        <v>11.47823596010503</v>
+        <v>14.59089461235678</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>52.18112936750479</v>
+        <v>79.94911801079752</v>
       </c>
       <c r="H21">
-        <v>18.07288139764554</v>
+        <v>20.17383456329647</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.5329398382542</v>
+        <v>24.02569710910252</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.60347115179036</v>
+        <v>29.15272664897173</v>
       </c>
       <c r="C22">
-        <v>10.72252468082287</v>
+        <v>20.29489156575817</v>
       </c>
       <c r="D22">
-        <v>6.674999185803117</v>
+        <v>9.979602224635411</v>
       </c>
       <c r="E22">
-        <v>11.61251572770498</v>
+        <v>15.23790391951183</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>53.23994962609076</v>
+        <v>83.20786948873537</v>
       </c>
       <c r="H22">
-        <v>18.21196138453742</v>
+        <v>20.84789254006645</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.7643868013367</v>
+        <v>25.01023806134175</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.38580713686814</v>
+        <v>28.5425961696906</v>
       </c>
       <c r="C23">
-        <v>10.53182950774857</v>
+        <v>19.88276089405463</v>
       </c>
       <c r="D23">
-        <v>6.617357009069834</v>
+        <v>9.766288261518039</v>
       </c>
       <c r="E23">
-        <v>11.54077785403328</v>
+        <v>14.8933413970232</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>52.67633980505268</v>
+        <v>81.46054690478647</v>
       </c>
       <c r="H23">
-        <v>18.13752519408211</v>
+        <v>20.48759709041896</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.6408542509122</v>
+        <v>24.48652524843084</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.54186466104608</v>
+        <v>26.1753323907952</v>
       </c>
       <c r="C24">
-        <v>9.77532421469801</v>
+        <v>18.28844603162278</v>
       </c>
       <c r="D24">
-        <v>6.397807403861817</v>
+        <v>8.940265112107971</v>
       </c>
       <c r="E24">
-        <v>11.27084523776339</v>
+        <v>13.6794005272415</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>50.51065497540343</v>
+        <v>74.8871743012118</v>
       </c>
       <c r="H24">
-        <v>17.86031796196293</v>
+        <v>19.13321461601912</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.17356363877131</v>
+        <v>22.46155360380335</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.59486750423561</v>
+        <v>23.48376269790464</v>
       </c>
       <c r="C25">
-        <v>8.885569963318767</v>
+        <v>16.48451127549161</v>
       </c>
       <c r="D25">
-        <v>6.159774749083089</v>
+        <v>8.004234254640911</v>
       </c>
       <c r="E25">
-        <v>10.98485559958379</v>
+        <v>12.4329358960738</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>48.12114044747106</v>
+        <v>67.65572790387725</v>
       </c>
       <c r="H25">
-        <v>17.57241661556716</v>
+        <v>17.68608523232169</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.67373484681342</v>
+        <v>20.1721981449972</v>
       </c>
       <c r="N25">
         <v>0</v>
